--- a/data/CBS/NFIB/Uncertainty Index.xlsx
+++ b/data/CBS/NFIB/Uncertainty Index.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4461140A-AF0D-42CA-B266-41BC43778F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995"/>
+    <workbookView xWindow="7050" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="480">
   <si>
     <t>Month/Year</t>
   </si>
@@ -1456,12 +1457,15 @@
   </si>
   <si>
     <t>2021/10/1</t>
+  </si>
+  <si>
+    <t>2021/12/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1610,6 +1614,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1645,6 +1666,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1820,8 +1858,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B478"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5657,9 +5695,18 @@
         <v>67</v>
       </c>
     </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>479</v>
+      </c>
+      <c r="B479">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>